--- a/biology/Médecine/Armand_Steinberg/Armand_Steinberg.xlsx
+++ b/biology/Médecine/Armand_Steinberg/Armand_Steinberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armand Steinberg, né le 25 juillet 1910 dans le 3e arrondissement de Paris et mort le 9 avril 2014 à Dieppe[1], est un des trois survivants de la rafle de la rue Sainte-Catherine, dont le témoignage est lu au procès de Klaus Barbie. Survivant d'Auschwitz, il est libéré à Dachau en mai 1945. Ce médecin français, centenaire, longtemps silencieux, fait l'objet d'un documentaire : Le Témoin impossible[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand Steinberg, né le 25 juillet 1910 dans le 3e arrondissement de Paris et mort le 9 avril 2014 à Dieppe, est un des trois survivants de la rafle de la rue Sainte-Catherine, dont le témoignage est lu au procès de Klaus Barbie. Survivant d'Auschwitz, il est libéré à Dachau en mai 1945. Ce médecin français, centenaire, longtemps silencieux, fait l'objet d'un documentaire : Le Témoin impossible.
 </t>
         </is>
       </c>
@@ -511,18 +523,160 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armand Steinberg est né le 25 juillet 1910, dans le 3e arrondissement de Paris[5]. Son père, Moritz Steinberg, est né à Iași (Roumanie) le 28 août 1877 et sa mère, Johanna Bender, à Lohnsfeld (Empire allemand) le 6 décembre 1882. De confession juive, ils se marient en 1908 à Paris, où ils exercent la profession de bijoutiers-horlogers[6]. Armand à un frère cadet, Robert Steinberg, né à Paris le 1er octobre 1911.
-Rafle de la rue Sainte-Catherine à Lyon
-Seules 3 personnes sur 84 survivent à la rafle au siège de l'Union générale des israélites de France (UGIF), rue Sainte-Catherine du 9 février 1943 : Armand Steinberg, Aron Luxemburg et Siegfried Driller. Le premier est déporté et survit à la Shoah. Les deux autres, Luxenburg (né le 19 janvier 1899, à Łódź, en Pologne) et Driller (né le 16 septembre 1896, à Vienne, parviennent à s'évader.
-La rafle à l'UGIF est un des 17 chefs d'accusation retenus contre Klaus Barbie comme crime contre l'humanité[7].
-Déportation
-Armand Steinberg est emmené à la prison Montluc, puis transféré au camp de Drancy, et déporté à Auschwitz, par le convoi no 57, en date du 18 juillet 1943, d'où il sera déporté au camp de concentration de Dachau et libéré en mai 1945.
-Témoignage au procès Barbie
-Le témoignage du docteur Armand Steinberg, enregistré le 17 février 1987, est lu le 20 mai 1987, le 8e jour du procès de Klaus Barbie[8] à 16:54. Il décrit la rafle à l'UGIF, son passage à la prison Montluc, le camp de Drancy, Auschwitz, et finalement le camp de concentration de Dachau, où il est libéré en mai 1945.
-Depuis 1945
-En 2014, il reçoit Bochurberg et Klarsfeld, les réalisateurs du film Les Témoins impossibles[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand Steinberg est né le 25 juillet 1910, dans le 3e arrondissement de Paris. Son père, Moritz Steinberg, est né à Iași (Roumanie) le 28 août 1877 et sa mère, Johanna Bender, à Lohnsfeld (Empire allemand) le 6 décembre 1882. De confession juive, ils se marient en 1908 à Paris, où ils exercent la profession de bijoutiers-horlogers. Armand à un frère cadet, Robert Steinberg, né à Paris le 1er octobre 1911.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rafle de la rue Sainte-Catherine à Lyon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules 3 personnes sur 84 survivent à la rafle au siège de l'Union générale des israélites de France (UGIF), rue Sainte-Catherine du 9 février 1943 : Armand Steinberg, Aron Luxemburg et Siegfried Driller. Le premier est déporté et survit à la Shoah. Les deux autres, Luxenburg (né le 19 janvier 1899, à Łódź, en Pologne) et Driller (né le 16 septembre 1896, à Vienne, parviennent à s'évader.
+La rafle à l'UGIF est un des 17 chefs d'accusation retenus contre Klaus Barbie comme crime contre l'humanité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Déportation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand Steinberg est emmené à la prison Montluc, puis transféré au camp de Drancy, et déporté à Auschwitz, par le convoi no 57, en date du 18 juillet 1943, d'où il sera déporté au camp de concentration de Dachau et libéré en mai 1945.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Témoignage au procès Barbie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le témoignage du docteur Armand Steinberg, enregistré le 17 février 1987, est lu le 20 mai 1987, le 8e jour du procès de Klaus Barbie à 16:54. Il décrit la rafle à l'UGIF, son passage à la prison Montluc, le camp de Drancy, Auschwitz, et finalement le camp de concentration de Dachau, où il est libéré en mai 1945.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Armand_Steinberg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Depuis 1945</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, il reçoit Bochurberg et Klarsfeld, les réalisateurs du film Les Témoins impossibles.
 </t>
         </is>
       </c>
